--- a/2000503 - QUESTIONARIO PF MarioRossi.xlsx
+++ b/2000503 - QUESTIONARIO PF MarioRossi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="186">
   <si>
     <t>Domanda</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Origine</t>
+  </si>
+  <si>
+    <t>Descrizione Origine</t>
   </si>
   <si>
     <t>Sezione</t>
@@ -529,13 +532,13 @@
     <t>Estratto conto a riga 15</t>
   </si>
   <si>
-    <t>Estratto conto a riga 61</t>
+    <t>Estratto conto a riga 60</t>
   </si>
   <si>
     <t>Estratto conto a riga 72</t>
   </si>
   <si>
-    <t>Estratto conto a riga 84</t>
+    <t>Estratto conto a riga 83</t>
   </si>
   <si>
     <t>Estratto conto a riga 14</t>
@@ -544,7 +547,45 @@
     <t>Estratto conto a riga 71</t>
   </si>
   <si>
+    <t>Estratto conto a riga 12</t>
+  </si>
+  <si>
     <t>Estratto conto a riga 53</t>
+  </si>
+  <si>
+    <t>Descrizione: ADDEBITO COMMISSIONE CONSULENZA EVOLUTA BANCA FIDEURAM Importo: 443</t>
+  </si>
+  <si>
+    <t>Descrizione: DISPOSIZIONE DI BONIFICO
+BONIFICO SEPA A: AZIENDA U.L.S.S. 6 EUGANEA PER: Rimborso retribuzione
+dott. Antonio Maritati relativo al mese di sette mbre 2019 COMM: 0,86 SPESE: 0,00
+COMM SERV: 0,00 Importo: 6.667,53</t>
+  </si>
+  <si>
+    <t>Descrizione: DISPOSIZIONE DI ADDEBITO GENERICA
+Ricarica Prepagata Business Easy **** **** ***125 89 Importo: 2.500,00</t>
+  </si>
+  <si>
+    <t>Descrizione: SOTTOSCRIZIONE BTP  Importo: 200000</t>
+  </si>
+  <si>
+    <t>Descrizione: DISPOSIZIONE DI BONIFICO
+BONIFICO SEPA A: TESORERIA DELLO STATO ER: 191219+97565580582+CAPO X CAP 3402 ART 02 COMPENSO CUNEO+001+SISAC- ST RUTTURA INTERREGIONALE SANITARI COMM: 9,01 SPESE: 0,00 COMM SERV: 0,00 Importo: 2.409,01</t>
+  </si>
+  <si>
+    <t>Descrizione: CEDOLE FONDO FIDELITY Importo: 2000</t>
+  </si>
+  <si>
+    <t>Descrizione: NUOVA SOTTOSCRIZIONE FONDO MONETARIO GOLDMAN SACHS Importo: 10000</t>
+  </si>
+  <si>
+    <t>Descrizione: SOTTOSCRIZIONE AZIONI FIAT Importo: 5000</t>
+  </si>
+  <si>
+    <t>Descrizione: VOSTRI EMOLUMENTI BONIFICO SEPA DA: OSPEDALE SAN RAFFAELE MILANO Importo: 10000</t>
+  </si>
+  <si>
+    <t>Descrizione: PAGAMENTO IMU Importo: 6000</t>
   </si>
 </sst>
 </file>
@@ -902,15 +943,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -939,842 +980,884 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I3">
         <v>100</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4">
         <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" t="s">
-        <v>160</v>
       </c>
       <c r="I7">
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F8">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I8">
         <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I10">
         <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="K10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+      <c r="J13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
+      </c>
+      <c r="J14" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16">
+        <v>60</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17">
+        <v>60</v>
+      </c>
+      <c r="J17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18">
+        <v>60</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19">
+        <v>60</v>
+      </c>
+      <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20">
+        <v>60</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21">
+        <v>60</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22">
+        <v>60</v>
+      </c>
+      <c r="J22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23">
+        <v>60</v>
+      </c>
+      <c r="J23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24">
+        <v>60</v>
+      </c>
+      <c r="J24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
         <v>97</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D26" t="s">
         <v>116</v>
       </c>
-      <c r="I11">
-        <v>60</v>
-      </c>
-      <c r="J11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="I26">
+        <v>60</v>
+      </c>
+      <c r="J26" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
         <v>98</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D27" t="s">
         <v>117</v>
       </c>
-      <c r="E12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13">
-        <v>60</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="I27">
+        <v>60</v>
+      </c>
+      <c r="J27" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14">
-        <v>60</v>
-      </c>
-      <c r="J14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16">
-        <v>60</v>
-      </c>
-      <c r="J16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17">
-        <v>60</v>
-      </c>
-      <c r="J17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18">
-        <v>60</v>
-      </c>
-      <c r="J18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19">
-        <v>60</v>
-      </c>
-      <c r="J19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
-      </c>
-      <c r="I20">
-        <v>60</v>
-      </c>
-      <c r="J20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21">
-        <v>60</v>
-      </c>
-      <c r="J21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" t="s">
-        <v>121</v>
-      </c>
-      <c r="I22">
-        <v>60</v>
-      </c>
-      <c r="J22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23">
-        <v>60</v>
-      </c>
-      <c r="J23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24">
-        <v>60</v>
-      </c>
-      <c r="J24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
         <v>97</v>
       </c>
-      <c r="D25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26">
-        <v>60</v>
-      </c>
-      <c r="J26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28">
+        <v>60</v>
+      </c>
+      <c r="J28" t="s">
+        <v>173</v>
+      </c>
+      <c r="K28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
         <v>97</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>116</v>
       </c>
-      <c r="I27">
-        <v>60</v>
-      </c>
-      <c r="J27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28">
-        <v>60</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="I29">
+        <v>60</v>
+      </c>
+      <c r="J29" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29">
-        <v>60</v>
-      </c>
-      <c r="J29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I30">
         <v>60</v>
       </c>
       <c r="J30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I31">
         <v>60</v>
       </c>
       <c r="J31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I32">
         <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I34">
         <v>60</v>
       </c>
       <c r="J34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I35">
         <v>60</v>
       </c>
       <c r="J35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>174</v>
+      </c>
+      <c r="K35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I36">
         <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I37">
         <v>40</v>
       </c>
       <c r="J37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I38">
         <v>10</v>
       </c>
       <c r="J38" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>175</v>
+      </c>
+      <c r="K38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I39">
         <v>10</v>
       </c>
       <c r="J39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I40">
         <v>60</v>
       </c>
       <c r="J40" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I41">
         <v>60</v>
       </c>
       <c r="J41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I42">
         <v>60</v>
       </c>
       <c r="J42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I43">
         <v>10</v>
       </c>
       <c r="J43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/2000503 - QUESTIONARIO PF MarioRossi.xlsx
+++ b/2000503 - QUESTIONARIO PF MarioRossi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="186">
   <si>
     <t>Domanda</t>
   </si>
@@ -307,7 +307,7 @@
     <t>Mario</t>
   </si>
   <si>
-    <t>1980-01-01</t>
+    <t>1969-01-01</t>
   </si>
   <si>
     <t>Nubile / Celibe</t>
@@ -316,6 +316,9 @@
     <t>Solo io</t>
   </si>
   <si>
+    <t>X-Si</t>
+  </si>
+  <si>
     <t>Si</t>
   </si>
   <si>
@@ -325,7 +328,7 @@
     <t>Investire tutti i propri risparmi in uno strumento che promette un alto rendimento</t>
   </si>
   <si>
-    <t>Sono d’accordo</t>
+    <t>X-Sono d’accordo</t>
   </si>
   <si>
     <t>X-Vero</t>
@@ -334,9 +337,6 @@
     <t>Vero</t>
   </si>
   <si>
-    <t>X-Si</t>
-  </si>
-  <si>
     <t>Frequentemente (più di 15 operazioni a semestre)</t>
   </si>
   <si>
@@ -352,19 +352,19 @@
     <t>X-Fino a € 50.000</t>
   </si>
   <si>
-    <t>Prima casa</t>
-  </si>
-  <si>
-    <t>X-Minore di € 500.000</t>
-  </si>
-  <si>
-    <t>X-E’ investito solo parzialmente con la vostra Società (inferiore al 30%)</t>
-  </si>
-  <si>
-    <t>X-Non ho impegni ﬁnanziari</t>
-  </si>
-  <si>
-    <t>X-Meno di € 1.000</t>
+    <t>X-Prima casa</t>
+  </si>
+  <si>
+    <t>Minore di € 500.000</t>
+  </si>
+  <si>
+    <t>E’ investito solo parzialmente con la vostra Società (inferiore al 30%)</t>
+  </si>
+  <si>
+    <t>Non ho impegni ﬁnanziari</t>
+  </si>
+  <si>
+    <t>Meno di € 1.000</t>
   </si>
   <si>
     <t>Nessuna</t>
@@ -373,7 +373,7 @@
     <t>Coppia di fatto</t>
   </si>
   <si>
-    <t>X-2</t>
+    <t>No</t>
   </si>
   <si>
     <t>X-No</t>
@@ -385,7 +385,7 @@
     <t>X-Investire in strumenti diversiﬁcati</t>
   </si>
   <si>
-    <t>X-Non sono d’accordo</t>
+    <t>Non sono d’accordo</t>
   </si>
   <si>
     <t>Falso</t>
@@ -394,9 +394,6 @@
     <t>X-Falso</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Regolarmente (tra 5 e 15 operazioni a semestre)</t>
   </si>
   <si>
@@ -412,25 +409,28 @@
     <t>Da € 50.000 a € 150.000</t>
   </si>
   <si>
-    <t xml:space="preserve">X-Altri immobili / terreni  </t>
-  </si>
-  <si>
-    <t>Compreso tra € 500.000 e € 1.000.000</t>
-  </si>
-  <si>
-    <t>E’ investito in maniera consistente con la vostra Società (tra il 30% e il 70%)</t>
+    <t xml:space="preserve">Altri immobili / terreni  </t>
+  </si>
+  <si>
+    <t>X-Compreso tra € 500.000 e € 1.000.000</t>
+  </si>
+  <si>
+    <t>X-E’ investito in maniera consistente con la vostra Società (tra il 30% e il 70%)</t>
   </si>
   <si>
     <t>Fino a € 1.000</t>
   </si>
   <si>
-    <t>Tra € 1.000 e € 3.000</t>
-  </si>
-  <si>
-    <t>Fino a 2</t>
-  </si>
-  <si>
-    <t>X-Coniugato/a</t>
+    <t>X-Tra € 1.000 e € 3.000</t>
+  </si>
+  <si>
+    <t>X-Fino a 2</t>
+  </si>
+  <si>
+    <t>Coniugato/a</t>
+  </si>
+  <si>
+    <t>X-3</t>
   </si>
   <si>
     <t>Non è mai possibile stabilire una relazione tra rischio e rendimento</t>
@@ -445,7 +445,7 @@
     <t>Reddito da impresa</t>
   </si>
   <si>
-    <t>X-Compreso tra € 75.000 e € 150.000</t>
+    <t>Compreso tra € 75.000 e € 150.000</t>
   </si>
   <si>
     <t>X-In moderata crescita</t>
@@ -466,7 +466,7 @@
     <t>Oltre € 3.000</t>
   </si>
   <si>
-    <t>X-3 o 4</t>
+    <t>3 o 4</t>
   </si>
   <si>
     <t>Separato/a</t>
@@ -478,7 +478,7 @@
     <t>Reddito da attività ﬁnanziarie</t>
   </si>
   <si>
-    <t>Compreso tra € 150.000 e € 250.000</t>
+    <t>X-Compreso tra € 150.000 e € 250.000</t>
   </si>
   <si>
     <t>In forte crescita</t>
@@ -487,13 +487,13 @@
     <t>Da € 500.000 a € 1.000.000</t>
   </si>
   <si>
-    <t>Oltre € 2.500</t>
+    <t>X-Oltre € 2.500</t>
   </si>
   <si>
     <t>Più di 4</t>
   </si>
   <si>
-    <t>Divorziato/a</t>
+    <t>X-Divorziato/a</t>
   </si>
   <si>
     <t>Oltre 4</t>
@@ -517,35 +517,75 @@
     <t>Modello 730</t>
   </si>
   <si>
+    <t>Estratto conto a riga 3</t>
+  </si>
+  <si>
     <t>Estratto conto</t>
   </si>
   <si>
     <t>Istruzione e Impiego</t>
   </si>
   <si>
+    <t>Estratto conto a riga 10</t>
+  </si>
+  <si>
     <t>Estratto conto a riga 15</t>
   </si>
   <si>
-    <t>Estratto conto a riga 16</t>
+    <t>Estratto conto a riga 60</t>
+  </si>
+  <si>
+    <t>Estratto conto a riga 72</t>
+  </si>
+  <si>
+    <t>Estratto conto a riga 83</t>
   </si>
   <si>
     <t>Estratto conto a riga 14</t>
   </si>
   <si>
+    <t>Estratto conto a riga 71</t>
+  </si>
+  <si>
     <t>Estratto conto a riga 12</t>
   </si>
   <si>
-    <t>Descrizione: azioni apple Importo: 2.500,00</t>
-  </si>
-  <si>
-    <t>Descrizione: COMMISSIONI - PROVVIGIONI - SPESE
-Commissione per Ricarica Prepagata Business Easy * *** **** ***12589 Importo: 1,50</t>
-  </si>
-  <si>
-    <t>Descrizione: sottoscrizione fondo monetario Importo: 967,17</t>
-  </si>
-  <si>
-    <t>Descrizione: VOSTRI EMOLUMENTI BONIFICO SEPA DA: UNICREDIT S.P.A. Importo: 3500.25</t>
+    <t>Estratto conto a riga 53</t>
+  </si>
+  <si>
+    <t>Descrizione: ADDEBITO COMMISSIONE CONSULENZA EVOLUTA BANCA FIDEURAM Importo: 443</t>
+  </si>
+  <si>
+    <t>Descrizione: DISPOSIZIONE DI BONIFICO
+BONIFICO SEPA A: AZIENDA U.L.S.S. 6 EUGANEA PER: Rimborso retribuzione
+dott. Antonio Maritati relativo al mese di sette mbre 2019 COMM: 0,86 SPESE: 0,00
+COMM SERV: 0,00 Importo: 6.667,53</t>
+  </si>
+  <si>
+    <t>Descrizione: DISPOSIZIONE DI ADDEBITO GENERICA
+Ricarica Prepagata Business Easy **** **** ***125 89 Importo: 2.500,00</t>
+  </si>
+  <si>
+    <t>Descrizione: SOTTOSCRIZIONE BTP  Importo: 200000</t>
+  </si>
+  <si>
+    <t>Descrizione: DISPOSIZIONE DI BONIFICO
+BONIFICO SEPA A: TESORERIA DELLO STATO ER: 191219+97565580582+CAPO X CAP 3402 ART 02 COMPENSO CUNEO+001+SISAC- ST RUTTURA INTERREGIONALE SANITARI COMM: 9,01 SPESE: 0,00 COMM SERV: 0,00 Importo: 2.409,01</t>
+  </si>
+  <si>
+    <t>Descrizione: CEDOLE FONDO FIDELITY Importo: 2000</t>
+  </si>
+  <si>
+    <t>Descrizione: NUOVA SOTTOSCRIZIONE FONDO MONETARIO GOLDMAN SACHS Importo: 10000</t>
+  </si>
+  <si>
+    <t>Descrizione: SOTTOSCRIZIONE AZIONI FIAT Importo: 5000</t>
+  </si>
+  <si>
+    <t>Descrizione: VOSTRI EMOLUMENTI BONIFICO SEPA DA: OSPEDALE SAN RAFFAELE MILANO Importo: 10000</t>
+  </si>
+  <si>
+    <t>Descrizione: PAGAMENTO IMU Importo: 6000</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1062,7 @@
         <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
         <v>148</v>
@@ -1050,11 +1090,11 @@
       <c r="C8" t="s">
         <v>96</v>
       </c>
-      <c r="D8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -1085,13 +1125,16 @@
         <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I10">
         <v>60</v>
       </c>
       <c r="J10" t="s">
         <v>164</v>
+      </c>
+      <c r="K10" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1102,7 +1145,7 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
         <v>117</v>
@@ -1111,7 +1154,7 @@
         <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1122,7 +1165,7 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
         <v>118</v>
@@ -1139,7 +1182,7 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>119</v>
@@ -1151,7 +1194,7 @@
         <v>60</v>
       </c>
       <c r="J13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1162,7 +1205,7 @@
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
         <v>120</v>
@@ -1171,7 +1214,10 @@
         <v>60</v>
       </c>
       <c r="J14" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="K14" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1190,7 +1236,7 @@
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
         <v>121</v>
@@ -1199,10 +1245,10 @@
         <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1216,13 +1262,16 @@
         <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I17">
         <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>169</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1236,13 +1285,16 @@
         <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I18">
         <v>60</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1253,7 +1305,7 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
         <v>121</v>
@@ -1262,10 +1314,10 @@
         <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1279,13 +1331,16 @@
         <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I20">
         <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1299,13 +1354,16 @@
         <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I21">
         <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1316,7 +1374,7 @@
         <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
         <v>122</v>
@@ -1325,7 +1383,7 @@
         <v>60</v>
       </c>
       <c r="J22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1336,7 +1394,7 @@
         <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
         <v>122</v>
@@ -1345,7 +1403,7 @@
         <v>60</v>
       </c>
       <c r="J23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1356,7 +1414,7 @@
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
         <v>122</v>
@@ -1365,7 +1423,7 @@
         <v>60</v>
       </c>
       <c r="J24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1376,10 +1434,10 @@
         <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1390,19 +1448,19 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I26">
         <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K26" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1413,7 +1471,7 @@
         <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
         <v>117</v>
@@ -1422,7 +1480,7 @@
         <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1436,13 +1494,16 @@
         <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I28">
         <v>60</v>
       </c>
       <c r="J28" t="s">
-        <v>164</v>
+        <v>173</v>
+      </c>
+      <c r="K28" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1453,19 +1514,19 @@
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I29">
         <v>60</v>
       </c>
       <c r="J29" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K29" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1476,7 +1537,7 @@
         <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
@@ -1485,7 +1546,7 @@
         <v>60</v>
       </c>
       <c r="J30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1496,7 +1557,7 @@
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
         <v>117</v>
@@ -1505,7 +1566,7 @@
         <v>60</v>
       </c>
       <c r="J31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1519,7 +1580,7 @@
         <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
         <v>138</v>
@@ -1531,7 +1592,7 @@
         <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1550,7 +1611,7 @@
         <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E34" t="s">
         <v>139</v>
@@ -1565,7 +1626,7 @@
         <v>60</v>
       </c>
       <c r="J34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1579,7 +1640,7 @@
         <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
         <v>140</v>
@@ -1594,10 +1655,10 @@
         <v>60</v>
       </c>
       <c r="J35" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K35" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1611,7 +1672,7 @@
         <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
         <v>141</v>
@@ -1623,7 +1684,7 @@
         <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1637,7 +1698,7 @@
         <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
         <v>142</v>
@@ -1652,7 +1713,7 @@
         <v>40</v>
       </c>
       <c r="J37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1666,13 +1727,16 @@
         <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I38">
         <v>10</v>
       </c>
       <c r="J38" t="s">
-        <v>164</v>
+        <v>175</v>
+      </c>
+      <c r="K38" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1686,7 +1750,7 @@
         <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
         <v>143</v>
@@ -1695,7 +1759,7 @@
         <v>10</v>
       </c>
       <c r="J39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1709,7 +1773,7 @@
         <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
         <v>144</v>
@@ -1718,7 +1782,7 @@
         <v>60</v>
       </c>
       <c r="J40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1732,7 +1796,7 @@
         <v>112</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
         <v>145</v>
@@ -1744,7 +1808,7 @@
         <v>60</v>
       </c>
       <c r="J41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1758,7 +1822,7 @@
         <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
         <v>146</v>
@@ -1767,7 +1831,7 @@
         <v>60</v>
       </c>
       <c r="J42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1781,7 +1845,7 @@
         <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
         <v>147</v>
